--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE76C83A-F05F-5142-BF32-41DF6970E7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9AB0A5-7CF7-B843-AB91-31A4A4472ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="167">
   <si>
     <t>Author</t>
   </si>
@@ -504,14 +504,6 @@
   </si>
   <si>
     <t>The Role of Iconicity in the Acquisition of Mandarin Modal Verbs and Temporal Adverbs by Japanese Learners</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang, Ziyue Ivy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multimodal Iconicity in Sexual Health Communication on Bilibili</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1106,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="107" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1128,19 +1120,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -1151,10 +1143,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1174,10 +1166,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1197,7 +1189,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1225,10 +1217,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1248,10 +1240,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1271,10 +1263,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1294,10 +1286,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1317,10 +1309,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1340,10 +1332,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1357,16 +1349,16 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1386,10 +1378,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1409,10 +1401,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1432,10 +1424,10 @@
         <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1455,10 +1447,10 @@
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1478,7 +1470,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1492,10 +1484,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1515,10 +1507,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -1538,7 +1530,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1552,10 +1544,10 @@
         <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1575,10 +1567,10 @@
         <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -1626,10 +1618,10 @@
         <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1649,10 +1641,10 @@
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -1672,10 +1664,10 @@
         <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1695,10 +1687,10 @@
         <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1718,7 +1710,7 @@
         <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1726,16 +1718,16 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -1755,10 +1747,10 @@
         <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -1778,10 +1770,10 @@
         <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
@@ -1801,10 +1793,10 @@
         <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1824,10 +1816,10 @@
         <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -1847,10 +1839,10 @@
         <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1870,10 +1862,10 @@
         <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
@@ -1893,10 +1885,10 @@
         <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
@@ -1930,10 +1922,10 @@
         <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
@@ -1953,10 +1945,10 @@
         <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -1976,10 +1968,10 @@
         <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -1993,16 +1985,16 @@
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
@@ -2022,7 +2014,7 @@
         <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -2036,7 +2028,7 @@
         <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
@@ -2050,10 +2042,10 @@
         <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="E45" s="1">
         <v>3</v>
@@ -2073,10 +2065,10 @@
         <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
@@ -2096,10 +2088,10 @@
         <v>90</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E47" s="1">
         <v>3</v>
@@ -2119,10 +2111,10 @@
         <v>92</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -2142,7 +2134,7 @@
         <v>94</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
@@ -2156,10 +2148,10 @@
         <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
@@ -2179,10 +2171,10 @@
         <v>98</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -2202,7 +2194,7 @@
         <v>101</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -2210,13 +2202,13 @@
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -2230,10 +2222,10 @@
         <v>108</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
@@ -2253,10 +2245,10 @@
         <v>107</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
@@ -2276,7 +2268,7 @@
         <v>106</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
@@ -2290,10 +2282,10 @@
         <v>109</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
@@ -2313,10 +2305,10 @@
         <v>112</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E58" s="1">
         <v>2</v>
@@ -2336,10 +2328,10 @@
         <v>113</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
@@ -2359,7 +2351,7 @@
         <v>116</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E60" s="1">
         <v>2</v>
@@ -2367,22 +2359,22 @@
     </row>
     <row r="61" spans="1:7" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
       </c>
       <c r="F61" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -2390,25 +2382,25 @@
     </row>
     <row r="62" spans="1:7" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="20" customHeight="1">
@@ -2419,19 +2411,19 @@
         <v>122</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
       </c>
       <c r="F63" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="20" customHeight="1">
@@ -2442,76 +2434,67 @@
         <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E64" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="20" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E66" s="1">
-        <v>3</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="20" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>
@@ -2519,30 +2502,39 @@
     </row>
     <row r="68" spans="1:7" ht="20" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="E68" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F68" s="1">
+        <v>3</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="20" customHeight="1">
       <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E69" s="1">
         <v>3</v>
@@ -2556,25 +2548,25 @@
     </row>
     <row r="70" spans="1:7" ht="20" customHeight="1">
       <c r="A70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E70" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F70" s="1">
         <v>3</v>
       </c>
       <c r="G70" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="20" customHeight="1">
@@ -2585,19 +2577,10 @@
         <v>140</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E71" s="1">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1">
-        <v>3</v>
-      </c>
-      <c r="G71" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="20" customHeight="1">
@@ -2608,10 +2591,19 @@
         <v>142</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="E72" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="20" customHeight="1">
@@ -2622,60 +2614,37 @@
         <v>144</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1">
-        <v>1</v>
-      </c>
-      <c r="G73" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="20" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="E74" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="20" customHeight="1">
-      <c r="A75" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E75" s="1">
-        <v>1</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1</v>
-      </c>
-      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G75" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
+  <autoFilter ref="A1:G74" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9AB0A5-7CF7-B843-AB91-31A4A4472ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="165">
   <si>
     <t>Author</t>
   </si>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Flaksman, Maria</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Iconicity, Language and Migration: Collecting Data on Brazilian and Mexican Immigrants Politeness Accommodation in Germany through the Language Portrait Technique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,10 +304,6 @@
   </si>
   <si>
     <t>Icons at Work: Image, Diagram, and Metaphor in Children’s ‘Support’ Postcards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only onomatopoeia? Differentiating types of lexical iconicity in the Etymological Dictionary of English Imitative Words</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1098,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="107" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="107" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1120,19 +1112,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -1143,10 +1135,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1166,10 +1158,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1189,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1203,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1217,10 +1209,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1240,10 +1232,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1263,10 +1255,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1286,10 +1278,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1309,10 +1301,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1332,10 +1324,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1349,16 +1341,16 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1378,10 +1370,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1401,10 +1393,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1421,13 +1413,13 @@
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1447,10 +1439,10 @@
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1467,10 +1459,10 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1484,10 +1476,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1507,10 +1499,10 @@
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -1530,7 +1522,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1538,16 +1530,16 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1561,16 +1553,16 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -1584,13 +1576,13 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1598,13 +1590,13 @@
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1612,16 +1604,16 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1635,16 +1627,16 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -1658,16 +1650,16 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1681,16 +1673,16 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1704,13 +1696,13 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1718,16 +1710,16 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -1741,16 +1733,16 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -1764,16 +1756,16 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
@@ -1787,22 +1779,22 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1">
         <v>2</v>
@@ -1810,16 +1802,16 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -1833,22 +1825,22 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G35" s="1">
         <v>2</v>
@@ -1856,48 +1848,39 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3</v>
-      </c>
-      <c r="G37" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
@@ -1908,9 +1891,18 @@
         <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>156</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1922,19 +1914,19 @@
         <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
       </c>
       <c r="F39" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
@@ -1945,79 +1937,70 @@
         <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
       </c>
       <c r="F40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
       </c>
       <c r="F41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>112</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E42" s="1">
-        <v>2</v>
-      </c>
-      <c r="F42" s="1">
-        <v>2</v>
-      </c>
-      <c r="G42" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
@@ -2028,56 +2011,65 @@
         <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="E44" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1">
@@ -2088,19 +2080,19 @@
         <v>90</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E47" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
@@ -2111,19 +2103,10 @@
         <v>92</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1">
-        <v>3</v>
-      </c>
-      <c r="G48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="20" customHeight="1">
@@ -2134,10 +2117,19 @@
         <v>94</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="20" customHeight="1">
@@ -2148,16 +2140,16 @@
         <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -2165,36 +2157,27 @@
     </row>
     <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <v>4</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -2202,182 +2185,191 @@
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
       </c>
       <c r="F54" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
-      </c>
-      <c r="F55" s="1">
-        <v>3</v>
-      </c>
-      <c r="G55" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="E56" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E58" s="1">
         <v>2</v>
       </c>
       <c r="F58" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G58" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="B59" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="C59" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E59" s="1">
-        <v>2</v>
-      </c>
-      <c r="F59" s="1">
-        <v>2</v>
-      </c>
-      <c r="G59" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="B60" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C60" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="E60" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="20" customHeight="1">
@@ -2388,19 +2380,19 @@
         <v>120</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
       </c>
       <c r="F62" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="20" customHeight="1">
@@ -2411,76 +2403,67 @@
         <v>122</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="20" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="E64" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E65" s="1">
-        <v>3</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="20" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E66" s="1">
         <v>2</v>
@@ -2488,30 +2471,39 @@
     </row>
     <row r="67" spans="1:7" ht="20" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E67" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="20" customHeight="1">
       <c r="A68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E68" s="1">
         <v>3</v>
@@ -2525,25 +2517,25 @@
     </row>
     <row r="69" spans="1:7" ht="20" customHeight="1">
       <c r="A69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="C69" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E69" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" s="1">
         <v>3</v>
       </c>
       <c r="G69" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="20" customHeight="1">
@@ -2554,19 +2546,10 @@
         <v>138</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E70" s="1">
-        <v>1</v>
-      </c>
-      <c r="F70" s="1">
-        <v>3</v>
-      </c>
-      <c r="G70" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="20" customHeight="1">
@@ -2577,10 +2560,19 @@
         <v>140</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="E71" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="20" customHeight="1">
@@ -2591,60 +2583,37 @@
         <v>142</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D72" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1">
-        <v>1</v>
-      </c>
-      <c r="G72" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="20" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="E73" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="20" customHeight="1">
-      <c r="A74" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E74" s="1">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1">
-        <v>1</v>
-      </c>
-      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G74" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
+  <autoFilter ref="A1:G73" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D5E3289-1774-E94E-9DAE-AE891C0E60C8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="159">
   <si>
     <t>Author</t>
   </si>
@@ -171,14 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dyrmo, Tomasz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iconic resemblance and metaphorical construal in distress relief posters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Besedina, Elena; Shamina, Elena; Gomzina, Olga</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,10 +483,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hsiao, Huichen S.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The Role of Iconicity in the Acquisition of Mandarin Modal Verbs and Temporal Adverbs by Japanese Learners</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,14 +555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Iconicity in the Air: The Conjuncture of Radio Music and National Ideology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang, Tianyu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lu, Chia-Rung</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -643,14 +623,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Colapietro, Vincent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iconific Minds and Heuristic Signs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -694,6 +666,10 @@
   </si>
   <si>
     <t>Parker, Tom; Allen, Jared</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hsiao, Huichen S.; Wu, Tzu-Po</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,6 +747,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1090,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="107" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1112,19 +1092,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -1135,10 +1115,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1158,16 +1138,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
@@ -1181,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1195,7 +1175,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1209,10 +1189,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1232,10 +1212,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1255,10 +1235,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1278,10 +1258,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1301,10 +1281,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1324,10 +1304,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1341,16 +1321,16 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1370,10 +1350,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1393,16 +1373,16 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -1413,13 +1393,13 @@
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1439,10 +1419,10 @@
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1459,10 +1439,10 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1476,10 +1456,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1499,33 +1479,33 @@
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
@@ -1533,19 +1513,19 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>2</v>
@@ -1553,36 +1533,27 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1590,16 +1561,25 @@
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>149</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
@@ -1610,19 +1590,19 @@
         <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
@@ -1633,19 +1613,19 @@
         <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
@@ -1656,70 +1636,70 @@
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3</v>
-      </c>
-      <c r="G28" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -1739,134 +1719,125 @@
         <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E34" s="1">
         <v>2</v>
       </c>
       <c r="F34" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
       </c>
       <c r="F35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
-      </c>
-      <c r="F36" s="1">
-        <v>3</v>
-      </c>
-      <c r="G36" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
@@ -1877,9 +1848,18 @@
         <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>149</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1891,19 +1871,19 @@
         <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
       </c>
       <c r="F38" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
@@ -1914,79 +1894,70 @@
         <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
       </c>
       <c r="F39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
       </c>
       <c r="F40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E41" s="1">
-        <v>2</v>
-      </c>
-      <c r="F41" s="1">
-        <v>2</v>
-      </c>
-      <c r="G41" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
@@ -1997,47 +1968,56 @@
         <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>4</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E44" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -2046,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1">
@@ -2057,19 +2037,19 @@
         <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1">
@@ -2080,19 +2060,10 @@
         <v>90</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>3</v>
-      </c>
-      <c r="G47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
@@ -2103,10 +2074,19 @@
         <v>92</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="20" customHeight="1">
@@ -2117,16 +2097,16 @@
         <v>94</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -2134,36 +2114,27 @@
     </row>
     <row r="50" spans="1:7" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>4</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -2171,159 +2142,168 @@
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
       </c>
       <c r="F53" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
-      </c>
-      <c r="F54" s="1">
-        <v>3</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="E55" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
       </c>
       <c r="F57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E58" s="1">
-        <v>2</v>
-      </c>
-      <c r="F58" s="1">
-        <v>2</v>
-      </c>
-      <c r="G58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="E59" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="20" customHeight="1">
@@ -2331,33 +2311,33 @@
         <v>116</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E60" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>145</v>
@@ -2366,90 +2346,81 @@
         <v>2</v>
       </c>
       <c r="F61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
         <v>1</v>
       </c>
       <c r="G62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G63" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="20" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E64" s="1">
-        <v>3</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
@@ -2463,33 +2434,42 @@
         <v>130</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="E66" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="20" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E67" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="20" customHeight="1">
@@ -2497,123 +2477,54 @@
         <v>134</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E68" s="1">
-        <v>3</v>
-      </c>
-      <c r="F68" s="1">
-        <v>3</v>
-      </c>
-      <c r="G68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="20" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
       </c>
       <c r="F69" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G69" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="20" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E70" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="20" customHeight="1">
-      <c r="A71" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1</v>
-      </c>
-      <c r="G71" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="20" customHeight="1">
-      <c r="A72" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E72" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="20" customHeight="1">
-      <c r="A73" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1">
-        <v>1</v>
-      </c>
-      <c r="G73" s="1">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G73" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
+  <autoFilter ref="A1:G70" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D5E3289-1774-E94E-9DAE-AE891C0E60C8}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{084BA336-6B72-B24F-937E-53D299A7CF91}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="157">
   <si>
     <t>Author</t>
   </si>
@@ -320,14 +320,6 @@
   </si>
   <si>
     <t>Torabi, Maryam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>How Language Experience Shapes Iconicity Judgments</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kang, Hyeonah; Choi, Yongju</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -747,10 +739,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1070,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1092,19 +1080,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -1115,10 +1103,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1138,10 +1126,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1161,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1189,10 +1177,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1212,10 +1200,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1235,10 +1223,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1258,10 +1246,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1281,10 +1269,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1304,10 +1292,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1321,16 +1309,16 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1350,10 +1338,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1373,10 +1361,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1396,10 +1384,10 @@
         <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1419,10 +1407,10 @@
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1442,7 +1430,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1456,10 +1444,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1479,7 +1467,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1493,10 +1481,10 @@
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1516,10 +1504,10 @@
         <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -1567,10 +1555,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1590,10 +1578,10 @@
         <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -1613,10 +1601,10 @@
         <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1636,10 +1624,10 @@
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1659,7 +1647,7 @@
         <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1667,16 +1655,16 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -1696,10 +1684,10 @@
         <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -1719,10 +1707,10 @@
         <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -1742,10 +1730,10 @@
         <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1765,10 +1753,10 @@
         <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -1788,10 +1776,10 @@
         <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -1811,10 +1799,10 @@
         <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -1848,19 +1836,19 @@
         <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
       </c>
       <c r="F37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
@@ -1871,79 +1859,70 @@
         <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
       </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
       </c>
       <c r="F39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>108</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E40" s="1">
-        <v>2</v>
-      </c>
-      <c r="F40" s="1">
-        <v>2</v>
-      </c>
-      <c r="G40" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
@@ -1954,47 +1933,56 @@
         <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>4</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
       </c>
       <c r="F43" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
@@ -2003,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1">
@@ -2014,16 +2002,16 @@
         <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="1">
         <v>3</v>
@@ -2037,19 +2025,10 @@
         <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>2</v>
-      </c>
-      <c r="G46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1">
@@ -2060,10 +2039,19 @@
         <v>90</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
@@ -2074,16 +2062,16 @@
         <v>92</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -2091,36 +2079,27 @@
     </row>
     <row r="49" spans="1:7" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>4</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
@@ -2128,182 +2107,191 @@
     </row>
     <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
       </c>
       <c r="F52" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
-      </c>
-      <c r="F53" s="1">
-        <v>3</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="E54" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
       </c>
       <c r="F56" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
-      </c>
-      <c r="F57" s="1">
-        <v>2</v>
-      </c>
-      <c r="G57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B58" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="B58" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="C58" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="E58" s="1">
+        <v>3</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E59" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="20" customHeight="1">
@@ -2314,19 +2302,19 @@
         <v>115</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E60" s="1">
         <v>2</v>
       </c>
       <c r="F60" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="20" customHeight="1">
@@ -2337,76 +2325,67 @@
         <v>117</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
       </c>
       <c r="G61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G62" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E63" s="1">
-        <v>3</v>
-      </c>
-      <c r="F63" s="1">
-        <v>4</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="20" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
@@ -2414,39 +2393,48 @@
     </row>
     <row r="65" spans="1:7" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="E65" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="20" customHeight="1">
       <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C66" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E66" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="20" customHeight="1">
@@ -2457,18 +2445,9 @@
         <v>131</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E67" s="1">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1">
-        <v>2</v>
-      </c>
-      <c r="G67" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2480,9 +2459,18 @@
         <v>133</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2494,37 +2482,14 @@
         <v>135</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D69" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E69" s="1">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1">
-        <v>2</v>
-      </c>
-      <c r="G69" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="20" customHeight="1">
-      <c r="A70" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E70" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G70" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
+  <autoFilter ref="A1:G69" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{084BA336-6B72-B24F-937E-53D299A7CF91}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{603C46F5-695F-8549-ABEF-55087FD36328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="155">
   <si>
     <t>Author</t>
   </si>
@@ -168,14 +168,6 @@
   </si>
   <si>
     <t xml:space="preserve">Symmetries and Parallels in English and Russian Phonaesthemes </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Besedina, Elena; Shamina, Elena; Gomzina, Olga</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Names for rounded and pointed objects: iconicity verified (Japanese designations of roundness and sharpness perceived by Russian speakers)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -739,6 +731,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1058,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1080,19 +1076,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -1103,10 +1099,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1126,10 +1122,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1149,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1163,7 +1159,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1177,10 +1173,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1200,10 +1196,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1223,10 +1219,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1246,10 +1242,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1269,10 +1265,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1292,10 +1288,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1309,16 +1305,16 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1338,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1361,10 +1357,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1381,13 +1377,13 @@
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1407,10 +1403,10 @@
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1427,10 +1423,10 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1444,10 +1440,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1461,16 +1457,25 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
@@ -1478,19 +1483,19 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -1498,36 +1503,27 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1535,16 +1531,25 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>145</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
@@ -1555,19 +1560,19 @@
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
       </c>
       <c r="G24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
@@ -1578,19 +1583,19 @@
         <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
@@ -1601,70 +1606,70 @@
         <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -1684,134 +1689,125 @@
         <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
       <c r="F30" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
       </c>
       <c r="F33" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
       </c>
       <c r="F34" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3</v>
-      </c>
-      <c r="G35" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
@@ -1822,10 +1818,19 @@
         <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>145</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
@@ -1836,79 +1841,70 @@
         <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
       </c>
       <c r="F38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>106</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E39" s="1">
-        <v>2</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2</v>
-      </c>
-      <c r="G39" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
@@ -1919,47 +1915,56 @@
         <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
@@ -1968,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
@@ -1979,16 +1984,16 @@
         <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="1">
         <v>3</v>
@@ -2002,19 +2007,10 @@
         <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>2</v>
-      </c>
-      <c r="G45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1">
@@ -2025,10 +2021,19 @@
         <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1">
@@ -2039,16 +2044,16 @@
         <v>90</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -2056,36 +2061,27 @@
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1">
-        <v>4</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
@@ -2093,182 +2089,191 @@
     </row>
     <row r="50" spans="1:7" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
       </c>
       <c r="F51" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
-      </c>
-      <c r="F52" s="1">
-        <v>3</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="E53" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
       </c>
       <c r="F55" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E56" s="1">
-        <v>2</v>
-      </c>
-      <c r="F56" s="1">
-        <v>2</v>
-      </c>
-      <c r="G56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C57" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="E57" s="1">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E58" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1">
@@ -2279,19 +2284,19 @@
         <v>113</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
       </c>
       <c r="F59" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="20" customHeight="1">
@@ -2302,76 +2307,67 @@
         <v>115</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E60" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
       </c>
       <c r="G60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E62" s="1">
-        <v>3</v>
-      </c>
-      <c r="F62" s="1">
-        <v>4</v>
-      </c>
-      <c r="G62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E63" s="1">
         <v>2</v>
@@ -2379,39 +2375,48 @@
     </row>
     <row r="64" spans="1:7" ht="20" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="E64" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E65" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="20" customHeight="1">
@@ -2422,18 +2427,9 @@
         <v>129</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1">
-        <v>2</v>
-      </c>
-      <c r="G66" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2445,9 +2441,18 @@
         <v>131</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2459,37 +2464,14 @@
         <v>133</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D68" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E68" s="1">
-        <v>1</v>
-      </c>
-      <c r="F68" s="1">
-        <v>2</v>
-      </c>
-      <c r="G68" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="20" customHeight="1">
-      <c r="A69" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E69" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G69" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
+  <autoFilter ref="A1:G68" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{603C46F5-695F-8549-ABEF-55087FD36328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E544566-1035-6747-916D-BA7C318D5D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -2144,7 +2144,7 @@
         <v>146</v>
       </c>
       <c r="E52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E544566-1035-6747-916D-BA7C318D5D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B455CE-220C-1C48-9492-0145FAE4BAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="153">
   <si>
     <t>Author</t>
   </si>
@@ -160,14 +160,6 @@
   </si>
   <si>
     <t>Gorlach, Marina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shamina, Elina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Symmetries and Parallels in English and Russian Phonaesthemes </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -731,10 +723,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1054,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="107" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1076,19 +1064,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -1099,10 +1087,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1122,10 +1110,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1145,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1159,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1173,10 +1161,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1196,10 +1184,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1219,10 +1207,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1242,10 +1230,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1265,10 +1253,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1288,10 +1276,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1305,16 +1293,16 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1334,10 +1322,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1357,10 +1345,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1377,13 +1365,13 @@
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1403,10 +1391,10 @@
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1423,10 +1411,10 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1434,25 +1422,25 @@
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
@@ -1460,19 +1448,19 @@
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <v>2</v>
@@ -1480,36 +1468,27 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1517,16 +1496,25 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>143</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
@@ -1537,19 +1525,19 @@
         <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
       </c>
       <c r="G23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
@@ -1560,19 +1548,19 @@
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
@@ -1583,70 +1571,70 @@
         <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>3</v>
-      </c>
-      <c r="G26" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1666,134 +1654,125 @@
         <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
       </c>
       <c r="F29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
       </c>
       <c r="F33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
-      </c>
-      <c r="F34" s="1">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
@@ -1804,10 +1783,19 @@
         <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>143</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
@@ -1818,79 +1806,70 @@
         <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
       </c>
       <c r="F37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2</v>
-      </c>
-      <c r="G38" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
@@ -1901,47 +1880,56 @@
         <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
       </c>
       <c r="F41" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
@@ -1950,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
@@ -1961,16 +1949,16 @@
         <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1">
         <v>3</v>
@@ -1984,19 +1972,10 @@
         <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>2</v>
-      </c>
-      <c r="G44" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1">
@@ -2007,10 +1986,19 @@
         <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1">
@@ -2021,16 +2009,16 @@
         <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -2038,36 +2026,27 @@
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>4</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
@@ -2075,182 +2054,191 @@
     </row>
     <row r="49" spans="1:7" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
       </c>
       <c r="F50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E51" s="1">
-        <v>2</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3</v>
-      </c>
-      <c r="G51" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G53" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
       </c>
       <c r="F54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E55" s="1">
-        <v>2</v>
-      </c>
-      <c r="F55" s="1">
-        <v>2</v>
-      </c>
-      <c r="G55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B56" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="B56" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C56" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="E56" s="1">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="20" customHeight="1">
@@ -2261,19 +2249,19 @@
         <v>111</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E58" s="1">
         <v>2</v>
       </c>
       <c r="F58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1">
@@ -2284,76 +2272,67 @@
         <v>113</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="1">
         <v>1</v>
       </c>
       <c r="G59" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G60" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E61" s="1">
-        <v>3</v>
-      </c>
-      <c r="F61" s="1">
-        <v>4</v>
-      </c>
-      <c r="G61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -2361,39 +2340,48 @@
     </row>
     <row r="63" spans="1:7" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E63" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="20" customHeight="1">
       <c r="A64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E64" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="20" customHeight="1">
@@ -2404,18 +2392,9 @@
         <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1">
-        <v>2</v>
-      </c>
-      <c r="G65" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2427,9 +2406,18 @@
         <v>129</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2441,37 +2429,14 @@
         <v>131</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E67" s="1">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1">
-        <v>2</v>
-      </c>
-      <c r="G67" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="20" customHeight="1">
-      <c r="A68" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E68" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G68" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
+  <autoFilter ref="A1:G67" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B455CE-220C-1C48-9492-0145FAE4BAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C092AD-A7D1-7043-9F2A-187F78CC8396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -287,10 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Choi, Yongju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kawasaki, Megumi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,6 +642,10 @@
   </si>
   <si>
     <t>Hsiao, Huichen S.; Wu, Tzu-Po</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choi, Youngju</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="107" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="107" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1064,19 +1064,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -1087,10 +1087,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1110,10 +1110,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1161,10 +1161,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1184,10 +1184,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1207,10 +1207,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1230,10 +1230,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1253,10 +1253,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1276,10 +1276,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1293,16 +1293,16 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1322,10 +1322,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1345,10 +1345,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1368,10 +1368,10 @@
         <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1391,10 +1391,10 @@
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1428,10 +1428,10 @@
         <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1451,10 +1451,10 @@
         <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -1502,10 +1502,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1525,10 +1525,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -1548,10 +1548,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1571,10 +1571,10 @@
         <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -1594,7 +1594,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1602,16 +1602,16 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1631,10 +1631,10 @@
         <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1654,10 +1654,10 @@
         <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -1677,10 +1677,10 @@
         <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1700,10 +1700,10 @@
         <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
@@ -1740,16 +1740,16 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -1800,16 +1800,16 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
@@ -1823,16 +1823,16 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
@@ -1846,13 +1846,13 @@
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
@@ -1874,16 +1874,16 @@
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -1897,16 +1897,16 @@
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -1920,16 +1920,16 @@
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
@@ -1943,16 +1943,16 @@
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1966,13 +1966,13 @@
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
@@ -1980,16 +1980,16 @@
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -2003,16 +2003,16 @@
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
@@ -2026,13 +2026,13 @@
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
@@ -2040,13 +2040,13 @@
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
@@ -2054,16 +2054,16 @@
     </row>
     <row r="49" spans="1:7" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
@@ -2077,16 +2077,16 @@
     </row>
     <row r="50" spans="1:7" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
@@ -2100,13 +2100,13 @@
     </row>
     <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -2137,16 +2137,16 @@
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -2160,16 +2160,16 @@
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
@@ -2220,16 +2220,16 @@
     </row>
     <row r="57" spans="1:7" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
@@ -2243,16 +2243,16 @@
     </row>
     <row r="58" spans="1:7" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E58" s="1">
         <v>2</v>
@@ -2266,16 +2266,16 @@
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
@@ -2289,16 +2289,16 @@
     </row>
     <row r="60" spans="1:7" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
@@ -2312,13 +2312,13 @@
     </row>
     <row r="61" spans="1:7" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
@@ -2326,13 +2326,13 @@
     </row>
     <row r="62" spans="1:7" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -2340,16 +2340,16 @@
     </row>
     <row r="63" spans="1:7" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E63" s="1">
         <v>3</v>
@@ -2363,16 +2363,16 @@
     </row>
     <row r="64" spans="1:7" ht="20" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -2386,13 +2386,13 @@
     </row>
     <row r="65" spans="1:7" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
@@ -2400,16 +2400,16 @@
     </row>
     <row r="66" spans="1:7" ht="20" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -2423,13 +2423,13 @@
     </row>
     <row r="67" spans="1:7" ht="20" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C092AD-A7D1-7043-9F2A-187F78CC8396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E68E1BB6-3FE1-DB41-89C4-6EB218B899E8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -599,10 +599,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Petković, Ivana Lozo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Theory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,6 +642,10 @@
   </si>
   <si>
     <t>Choi, Youngju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Petković Lozo, Ivana</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,6 +723,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1044,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="107" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1070,13 +1074,13 @@
         <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -1087,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1110,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>134</v>
@@ -1133,7 +1137,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1161,10 +1165,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1184,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>135</v>
@@ -1207,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>135</v>
@@ -1230,10 +1234,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1253,7 +1257,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>133</v>
@@ -1276,7 +1280,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>135</v>
@@ -1293,13 +1297,13 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>133</v>
@@ -1322,10 +1326,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1345,7 +1349,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>134</v>
@@ -1368,7 +1372,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>135</v>
@@ -1391,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>136</v>
@@ -1414,7 +1418,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1428,7 +1432,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>133</v>
@@ -1451,7 +1455,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>135</v>
@@ -1502,7 +1506,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>137</v>
@@ -1525,10 +1529,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -1548,7 +1552,7 @@
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>139</v>
@@ -1571,7 +1575,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>133</v>
@@ -1594,7 +1598,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1608,10 +1612,10 @@
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1631,10 +1635,10 @@
         <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1654,7 +1658,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>134</v>
@@ -1677,10 +1681,10 @@
         <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1700,7 +1704,7 @@
         <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>136</v>
@@ -1717,16 +1721,16 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
@@ -1746,10 +1750,10 @@
         <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -1783,7 +1787,7 @@
         <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>134</v>
@@ -1806,7 +1810,7 @@
         <v>68</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>133</v>
@@ -1823,13 +1827,13 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>136</v>
@@ -1852,7 +1856,7 @@
         <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1866,7 +1870,7 @@
         <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
@@ -1880,10 +1884,10 @@
         <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -1903,7 +1907,7 @@
         <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>135</v>
@@ -1926,7 +1930,7 @@
         <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>135</v>
@@ -1949,7 +1953,7 @@
         <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>137</v>
@@ -1972,7 +1976,7 @@
         <v>83</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
@@ -1986,7 +1990,7 @@
         <v>85</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>138</v>
@@ -2009,7 +2013,7 @@
         <v>87</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>135</v>
@@ -2032,7 +2036,7 @@
         <v>90</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
@@ -2046,7 +2050,7 @@
         <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
@@ -2060,7 +2064,7 @@
         <v>97</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>136</v>
@@ -2083,7 +2087,7 @@
         <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>133</v>
@@ -2106,7 +2110,7 @@
         <v>95</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -2120,10 +2124,10 @@
         <v>98</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -2143,10 +2147,10 @@
         <v>101</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -2166,7 +2170,7 @@
         <v>102</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>136</v>
@@ -2183,13 +2187,13 @@
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -2203,10 +2207,10 @@
         <v>107</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
@@ -2226,7 +2230,7 @@
         <v>108</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>133</v>
@@ -2249,7 +2253,7 @@
         <v>110</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>138</v>
@@ -2272,7 +2276,7 @@
         <v>112</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>139</v>
@@ -2295,10 +2299,10 @@
         <v>116</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
@@ -2318,7 +2322,7 @@
         <v>118</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
@@ -2332,7 +2336,7 @@
         <v>120</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -2346,7 +2350,7 @@
         <v>123</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>133</v>
@@ -2369,7 +2373,7 @@
         <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>137</v>
@@ -2392,7 +2396,7 @@
         <v>126</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
@@ -2406,10 +2410,10 @@
         <v>128</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
@@ -2429,7 +2433,7 @@
         <v>130</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E67" s="1">
         <v>2</v>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E68E1BB6-3FE1-DB41-89C4-6EB218B899E8}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DC5C090-E983-0049-846E-BA0FE7753170}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="151">
   <si>
     <t>Author</t>
   </si>
@@ -268,14 +268,6 @@
   </si>
   <si>
     <t>Sheng, Kaijun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Radawi, Saeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Semantics of Pharyngealization: between Identity and Sound Symbolism</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1046,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="107" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1068,19 +1060,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -1091,10 +1083,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1114,10 +1106,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1137,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1165,10 +1157,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1188,10 +1180,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1211,10 +1203,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1234,10 +1226,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1257,10 +1249,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1280,10 +1272,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1297,16 +1289,16 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1326,10 +1318,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1349,10 +1341,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1372,10 +1364,10 @@
         <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1395,10 +1387,10 @@
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1418,7 +1410,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1432,10 +1424,10 @@
         <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1452,13 +1444,13 @@
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -1506,10 +1498,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1529,10 +1521,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -1552,10 +1544,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1575,10 +1567,10 @@
         <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -1598,7 +1590,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1606,16 +1598,16 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1635,10 +1627,10 @@
         <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1658,10 +1650,10 @@
         <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -1681,10 +1673,10 @@
         <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1698,71 +1690,62 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
       </c>
       <c r="F32" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
-      </c>
-      <c r="F33" s="1">
-        <v>3</v>
-      </c>
-      <c r="G33" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
@@ -1773,10 +1756,19 @@
         <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>32</v>
+        <v>139</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
@@ -1787,79 +1779,70 @@
         <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E37" s="1">
-        <v>2</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2</v>
-      </c>
-      <c r="G37" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
@@ -1870,47 +1853,56 @@
         <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
       </c>
       <c r="F40" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -1919,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
@@ -1930,16 +1922,16 @@
         <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1">
         <v>3</v>
@@ -1953,19 +1945,10 @@
         <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>2</v>
-      </c>
-      <c r="G43" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
@@ -1976,10 +1959,19 @@
         <v>83</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1">
@@ -1990,16 +1982,16 @@
         <v>85</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -2007,36 +1999,27 @@
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>4</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
@@ -2044,182 +2027,191 @@
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
       </c>
       <c r="F49" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E50" s="1">
-        <v>2</v>
-      </c>
-      <c r="F50" s="1">
-        <v>3</v>
-      </c>
-      <c r="G50" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
       </c>
       <c r="F53" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E54" s="1">
-        <v>2</v>
-      </c>
-      <c r="F54" s="1">
-        <v>2</v>
-      </c>
-      <c r="G54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C55" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E55" s="1">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E56" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="20" customHeight="1">
@@ -2230,19 +2222,19 @@
         <v>108</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
       </c>
       <c r="F57" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="20" customHeight="1">
@@ -2253,76 +2245,67 @@
         <v>110</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
       </c>
       <c r="G58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E59" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G59" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E60" s="1">
-        <v>3</v>
-      </c>
-      <c r="F60" s="1">
-        <v>4</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E61" s="1">
         <v>2</v>
@@ -2330,39 +2313,48 @@
     </row>
     <row r="62" spans="1:7" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="E62" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E63" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="20" customHeight="1">
@@ -2373,18 +2365,9 @@
         <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E64" s="1">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1">
-        <v>2</v>
-      </c>
-      <c r="G64" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2396,9 +2379,18 @@
         <v>126</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2410,37 +2402,14 @@
         <v>128</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D66" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1">
-        <v>2</v>
-      </c>
-      <c r="G66" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="20" customHeight="1">
-      <c r="A67" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E67" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G67" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
+  <autoFilter ref="A1:G66" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DC5C090-E983-0049-846E-BA0FE7753170}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC1F66E-9CA7-AE4B-904C-A3C176ABC82C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,20 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="149">
   <si>
     <t>Author</t>
   </si>
   <si>
     <t>Title</t>
-  </si>
-  <si>
-    <t>Kostetskaya, Anastasia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>From Page to Stage: Iconicity of Emotion Across Verbal and Visual-Kinesthetic Modes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Behavior mirrored in the brain: An fNIRS study of Chinese ideophone modality exclusivity</t>
@@ -1038,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="107" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1060,33 +1052,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1100,16 +1092,16 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1123,13 +1115,13 @@
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1137,13 +1129,13 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1151,16 +1143,16 @@
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1174,16 +1166,16 @@
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1192,50 +1184,50 @@
         <v>4</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1249,7 +1241,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>131</v>
@@ -1258,30 +1250,30 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -1289,22 +1281,22 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>2</v>
@@ -1312,45 +1304,45 @@
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -1358,62 +1350,62 @@
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
@@ -1421,19 +1413,19 @@
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>131</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -1441,36 +1433,27 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>133</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1478,16 +1461,25 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>137</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
@@ -1498,19 +1490,19 @@
         <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1">
         <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
@@ -1521,19 +1513,19 @@
         <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
@@ -1544,70 +1536,70 @@
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="G26" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1627,62 +1619,62 @@
         <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
       </c>
       <c r="F28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30" s="1">
         <v>2</v>
@@ -1690,48 +1682,39 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
-      </c>
-      <c r="F32" s="1">
-        <v>3</v>
-      </c>
-      <c r="G32" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
@@ -1742,10 +1725,19 @@
         <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>137</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
@@ -1756,79 +1748,70 @@
         <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
       </c>
       <c r="F34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>2</v>
-      </c>
-      <c r="G36" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
@@ -1839,47 +1822,56 @@
         <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
       </c>
       <c r="F39" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -1888,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
@@ -1899,16 +1891,16 @@
         <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1">
         <v>3</v>
@@ -1922,19 +1914,10 @@
         <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>2</v>
-      </c>
-      <c r="G42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
@@ -1945,10 +1928,19 @@
         <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
@@ -1959,16 +1951,16 @@
         <v>83</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -1976,36 +1968,27 @@
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>4</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
@@ -2013,182 +1996,191 @@
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E48" s="1">
         <v>2</v>
       </c>
       <c r="F48" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E49" s="1">
-        <v>2</v>
-      </c>
-      <c r="F49" s="1">
-        <v>3</v>
-      </c>
-      <c r="G49" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
       </c>
       <c r="F52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E53" s="1">
-        <v>2</v>
-      </c>
-      <c r="F53" s="1">
-        <v>2</v>
-      </c>
-      <c r="G53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="B54" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="C54" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E54" s="1">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E55" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1">
@@ -2199,19 +2191,19 @@
         <v>106</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
       </c>
       <c r="F56" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="20" customHeight="1">
@@ -2222,76 +2214,67 @@
         <v>108</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E59" s="1">
-        <v>3</v>
-      </c>
-      <c r="F59" s="1">
-        <v>4</v>
-      </c>
-      <c r="G59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E60" s="1">
         <v>2</v>
@@ -2299,39 +2282,48 @@
     </row>
     <row r="61" spans="1:7" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E61" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E62" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="20" customHeight="1">
@@ -2342,18 +2334,9 @@
         <v>122</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1">
-        <v>2</v>
-      </c>
-      <c r="G63" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2365,13 +2348,22 @@
         <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="E64" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="20" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
@@ -2379,37 +2371,14 @@
         <v>126</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1">
-        <v>2</v>
-      </c>
-      <c r="G65" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="20" customHeight="1">
-      <c r="A66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E66" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G66" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
+  <autoFilter ref="A1:G65" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC1F66E-9CA7-AE4B-904C-A3C176ABC82C}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DACB8D85-5741-D746-B122-A22635D4FCAC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="147">
   <si>
     <t>Author</t>
   </si>
@@ -307,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>When Sounds Speak: Sound Symbolism and Iconicity in Bangla</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Liu, Chunxiao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,10 +428,6 @@
   </si>
   <si>
     <t>Sound Symbolic Javanese First Names: A Random Forest Approach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Banerjee, Mithun; Rahman, Syed Shahrier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -707,10 +699,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1030,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="107" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1052,19 +1040,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -1075,10 +1063,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1098,10 +1086,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1121,7 +1109,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1149,10 +1137,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1172,10 +1160,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1195,10 +1183,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1218,10 +1206,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1241,10 +1229,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1258,16 +1246,16 @@
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1287,10 +1275,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1310,10 +1298,10 @@
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1333,10 +1321,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1356,10 +1344,10 @@
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1379,7 +1367,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1393,10 +1381,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1416,10 +1404,10 @@
         <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -1467,10 +1455,10 @@
         <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1490,10 +1478,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
@@ -1513,10 +1501,10 @@
         <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1536,10 +1524,10 @@
         <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -1559,7 +1547,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1567,16 +1555,16 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
@@ -1596,10 +1584,10 @@
         <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1619,10 +1607,10 @@
         <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1642,10 +1630,10 @@
         <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1659,16 +1647,16 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -1688,10 +1676,10 @@
         <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -1725,10 +1713,10 @@
         <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -1748,10 +1736,10 @@
         <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -1765,16 +1753,16 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -1788,67 +1776,76 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="B38" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
       </c>
       <c r="F38" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
@@ -1857,27 +1854,27 @@
         <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>131</v>
       </c>
       <c r="E40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1">
         <v>3</v>
@@ -1885,59 +1882,59 @@
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>2</v>
-      </c>
-      <c r="G41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -1948,33 +1945,24 @@
         <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>4</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -1982,15 +1970,24 @@
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1999,22 +1996,22 @@
         <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
@@ -2022,35 +2019,35 @@
         <v>89</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E48" s="1">
-        <v>2</v>
-      </c>
-      <c r="F48" s="1">
-        <v>3</v>
-      </c>
-      <c r="G48" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2058,106 +2055,106 @@
       <c r="A50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>94</v>
+      <c r="B50" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
       </c>
       <c r="F51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E52" s="1">
-        <v>2</v>
-      </c>
-      <c r="F52" s="1">
-        <v>2</v>
-      </c>
-      <c r="G52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="B53" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="C53" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E54" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1">
@@ -2168,19 +2165,19 @@
         <v>104</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
       </c>
       <c r="F55" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1">
@@ -2191,76 +2188,67 @@
         <v>106</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G57" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E58" s="1">
-        <v>3</v>
-      </c>
-      <c r="F58" s="1">
-        <v>4</v>
-      </c>
-      <c r="G58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
@@ -2268,39 +2256,48 @@
     </row>
     <row r="60" spans="1:7" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="E60" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F60" s="1">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="20" customHeight="1">
@@ -2311,18 +2308,9 @@
         <v>120</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1">
-        <v>2</v>
-      </c>
-      <c r="G62" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2334,9 +2322,18 @@
         <v>122</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2348,37 +2345,14 @@
         <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E64" s="1">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1">
-        <v>2</v>
-      </c>
-      <c r="G64" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="20" customHeight="1">
-      <c r="A65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E65" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G65" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
+  <autoFilter ref="A1:G64" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DACB8D85-5741-D746-B122-A22635D4FCAC}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CD7D31C-E27C-B944-952C-1697A4F62913}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -699,6 +699,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1020,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="107" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1057,165 +1061,165 @@
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
         <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>137</v>
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1223,33 +1227,33 @@
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>135</v>
@@ -1258,7 +1262,7 @@
         <v>127</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
@@ -1269,139 +1273,121 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>125</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>89</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>135</v>
@@ -1410,10 +1396,10 @@
         <v>129</v>
       </c>
       <c r="E18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" s="1">
         <v>2</v>
@@ -1421,13 +1407,13 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>144</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1435,59 +1421,68 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>135</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
       </c>
       <c r="G21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -1495,39 +1490,30 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -1536,17 +1522,17 @@
         <v>3</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E25" s="1">
@@ -1555,137 +1541,119 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
       <c r="F26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
-      </c>
-      <c r="F27" s="1">
-        <v>4</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
       </c>
       <c r="F31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1">
         <v>3</v>
@@ -1693,30 +1661,30 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -1725,15 +1693,15 @@
         <v>2</v>
       </c>
       <c r="G33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>135</v>
@@ -1742,7 +1710,7 @@
         <v>127</v>
       </c>
       <c r="E34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1">
         <v>3</v>
@@ -1753,82 +1721,82 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>2</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>119</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
         <v>2</v>
@@ -1836,16 +1804,16 @@
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
@@ -1854,21 +1822,21 @@
         <v>1</v>
       </c>
       <c r="G39" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>143</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1877,41 +1845,50 @@
         <v>2</v>
       </c>
       <c r="G40" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>146</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -1919,10 +1896,10 @@
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>135</v>
@@ -1937,15 +1914,15 @@
         <v>4</v>
       </c>
       <c r="G43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>136</v>
@@ -1956,70 +1933,79 @@
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G47" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>136</v>
@@ -2030,39 +2016,39 @@
     </row>
     <row r="49" spans="1:7" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
@@ -2071,110 +2057,92 @@
         <v>3</v>
       </c>
       <c r="G50" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E51" s="1">
-        <v>2</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2</v>
-      </c>
-      <c r="G51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>4</v>
+      </c>
+      <c r="G52" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="E53" s="1">
-        <v>3</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E54" s="1">
-        <v>2</v>
-      </c>
-      <c r="F54" s="1">
-        <v>3</v>
-      </c>
-      <c r="G54" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
       </c>
       <c r="F55" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -2182,33 +2150,33 @@
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G56" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>135</v>
@@ -2217,61 +2185,79 @@
         <v>141</v>
       </c>
       <c r="E57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>22</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E58" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
       </c>
       <c r="F60" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -2279,10 +2265,10 @@
     </row>
     <row r="61" spans="1:7" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>135</v>
@@ -2297,21 +2283,30 @@
         <v>2</v>
       </c>
       <c r="G61" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="E62" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3</v>
+      </c>
+      <c r="G62" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="20" customHeight="1">
@@ -2339,20 +2334,33 @@
     </row>
     <row r="64" spans="1:7" ht="20" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
       </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G64" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}"/>
+  <autoFilter ref="A1:G64" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G64">
+      <sortCondition ref="A1:A64"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CD7D31C-E27C-B944-952C-1697A4F62913}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6169B884-C515-C949-A4B8-BBA1AE9860F6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -435,10 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sekine, Kazuki; Yanase, Konoka; Cohn, Neil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Smith, Chris A.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,6 +618,10 @@
   </si>
   <si>
     <t>Petković Lozo, Ivana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sekine, Kazuki; Yanase, Konoka; Kadota, Keisuke; Cohn, Neil</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,10 +699,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1024,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="107" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1044,33 +1040,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1084,16 +1080,16 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -1113,10 +1109,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1130,16 +1126,16 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1187,10 +1183,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -1204,16 +1200,16 @@
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -1233,10 +1229,10 @@
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1256,10 +1252,10 @@
         <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -1279,10 +1275,10 @@
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1302,7 +1298,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1310,13 +1306,13 @@
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1330,10 +1326,10 @@
         <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1353,7 +1349,7 @@
         <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1367,10 +1363,10 @@
         <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1390,10 +1386,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1407,13 +1403,13 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1427,10 +1423,10 @@
         <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -1450,10 +1446,10 @@
         <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -1473,10 +1469,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1496,7 +1492,7 @@
         <v>85</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -1510,10 +1506,10 @@
         <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -1533,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1547,10 +1543,10 @@
         <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
@@ -1570,7 +1566,7 @@
         <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1578,16 +1574,16 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -1607,7 +1603,7 @@
         <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -1621,10 +1617,10 @@
         <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1644,10 +1640,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -1681,10 +1677,10 @@
         <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -1704,10 +1700,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1721,13 +1717,13 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -1741,10 +1737,10 @@
         <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
@@ -1764,10 +1760,10 @@
         <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1781,16 +1777,16 @@
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1810,10 +1806,10 @@
         <v>80</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
@@ -1827,16 +1823,16 @@
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1850,16 +1846,16 @@
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -1879,10 +1875,10 @@
         <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
@@ -1902,10 +1898,10 @@
         <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1919,13 +1915,13 @@
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
@@ -1939,10 +1935,10 @@
         <v>54</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -1956,16 +1952,16 @@
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
@@ -1985,10 +1981,10 @@
         <v>70</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
@@ -2002,13 +1998,13 @@
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -2022,10 +2018,10 @@
         <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -2045,10 +2041,10 @@
         <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
@@ -2068,7 +2064,7 @@
         <v>47</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -2082,10 +2078,10 @@
         <v>82</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -2113,13 +2109,13 @@
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
@@ -2133,10 +2129,10 @@
         <v>51</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
@@ -2150,16 +2146,16 @@
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
@@ -2179,10 +2175,10 @@
         <v>96</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
@@ -2202,10 +2198,10 @@
         <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -2219,16 +2215,16 @@
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
@@ -2248,10 +2244,10 @@
         <v>40</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
@@ -2271,10 +2267,10 @@
         <v>38</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -2294,10 +2290,10 @@
         <v>23</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -2311,16 +2307,16 @@
     </row>
     <row r="63" spans="1:7" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -2340,10 +2336,10 @@
         <v>56</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6169B884-C515-C949-A4B8-BBA1AE9860F6}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{682EBDD8-13D1-5545-A73F-22C9B961B27A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -267,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Iconicity and Composite Utterances: Perspective Blending in KSL Narratives</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kawasaki, Megumi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,6 +618,10 @@
   </si>
   <si>
     <t>Sekine, Kazuki; Yanase, Konoka; Kadota, Keisuke; Cohn, Neil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iconicity and composite utterances in sign language narratives: Modality differences</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1040,33 +1040,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -1109,10 +1109,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1126,16 +1126,16 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1183,10 +1183,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -1200,16 +1200,16 @@
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -1229,10 +1229,10 @@
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1246,16 +1246,16 @@
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -1275,10 +1275,10 @@
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1298,7 +1298,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1306,13 +1306,13 @@
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1320,16 +1320,16 @@
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1343,13 +1343,13 @@
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1386,10 +1386,10 @@
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1403,13 +1403,13 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1423,10 +1423,10 @@
         <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -1440,16 +1440,16 @@
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -1469,10 +1469,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -1500,16 +1500,16 @@
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -1529,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1537,16 +1537,16 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
@@ -1560,13 +1560,13 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" s="1">
         <v>2</v>
@@ -1574,16 +1574,16 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -1597,13 +1597,13 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -1611,16 +1611,16 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1640,10 +1640,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31" s="1">
         <v>2</v>
@@ -1671,16 +1671,16 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
@@ -1700,10 +1700,10 @@
         <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -1731,16 +1731,16 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
@@ -1760,10 +1760,10 @@
         <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1800,16 +1800,16 @@
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
@@ -1823,16 +1823,16 @@
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1846,16 +1846,16 @@
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -1875,10 +1875,10 @@
         <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
@@ -1898,10 +1898,10 @@
         <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
@@ -1915,13 +1915,13 @@
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
@@ -1935,10 +1935,10 @@
         <v>54</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
@@ -1952,16 +1952,16 @@
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
@@ -1975,16 +1975,16 @@
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
@@ -1998,13 +1998,13 @@
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -2018,10 +2018,10 @@
         <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -2035,16 +2035,16 @@
     </row>
     <row r="50" spans="1:7" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
@@ -2064,7 +2064,7 @@
         <v>47</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E51" s="1">
         <v>1</v>
@@ -2072,16 +2072,16 @@
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
@@ -2095,10 +2095,10 @@
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>30</v>
@@ -2109,13 +2109,13 @@
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
@@ -2129,10 +2129,10 @@
         <v>51</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
@@ -2146,16 +2146,16 @@
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
@@ -2169,16 +2169,16 @@
     </row>
     <row r="57" spans="1:7" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
@@ -2198,10 +2198,10 @@
         <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -2215,16 +2215,16 @@
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
@@ -2244,10 +2244,10 @@
         <v>40</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
@@ -2267,10 +2267,10 @@
         <v>38</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -2290,10 +2290,10 @@
         <v>23</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -2307,16 +2307,16 @@
     </row>
     <row r="63" spans="1:7" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -2336,10 +2336,10 @@
         <v>56</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{682EBDD8-13D1-5545-A73F-22C9B961B27A}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D251E63F-9E5F-014F-BEA4-CA0FFE7EAF30}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="145">
   <si>
     <t>Author</t>
   </si>
@@ -524,14 +524,6 @@
   </si>
   <si>
     <t>Yamaguchi, Masataka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interpretation of animal tracks vs. pictorial and linguistic narratives</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Greenberg, Yael; Esipova, Masha; ben David, Asaf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1018,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1043,16 +1035,16 @@
         <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -1063,10 +1055,10 @@
         <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1086,10 +1078,10 @@
         <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -1109,10 +1101,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1126,16 +1118,16 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1183,10 +1175,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -1206,10 +1198,10 @@
         <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -1229,10 +1221,10 @@
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1252,10 +1244,10 @@
         <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -1275,10 +1267,10 @@
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1298,7 +1290,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1306,124 +1298,133 @@
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>140</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>126</v>
@@ -1435,198 +1436,198 @@
         <v>2</v>
       </c>
       <c r="G20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>133</v>
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>125</v>
+        <v>84</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>139</v>
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>134</v>
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E28" s="1">
-        <v>3</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="E29" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1">
         <v>3</v>
@@ -1634,59 +1635,59 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>127</v>
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1">
         <v>2</v>
@@ -1694,56 +1695,56 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -1754,22 +1755,22 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
@@ -1777,45 +1778,45 @@
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>139</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -1823,285 +1824,276 @@
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1">
         <v>3</v>
       </c>
       <c r="G41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1">
-        <v>4</v>
-      </c>
-      <c r="G43" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E47" s="1">
-        <v>2</v>
-      </c>
-      <c r="F47" s="1">
-        <v>4</v>
-      </c>
-      <c r="G47" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>134</v>
+        <v>8</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>133</v>
+        <v>90</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="1">
         <v>3</v>
       </c>
       <c r="G49" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E50" s="1">
-        <v>2</v>
-      </c>
-      <c r="F50" s="1">
-        <v>3</v>
-      </c>
-      <c r="G50" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>4</v>
+      </c>
+      <c r="G51" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>4</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>59</v>
+        <v>113</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -2109,30 +2101,39 @@
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>50</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>4</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
@@ -2146,65 +2147,65 @@
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>94</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E56" s="1">
         <v>2</v>
       </c>
       <c r="F56" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G56" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>95</v>
+        <v>22</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="1">
         <v>1</v>
@@ -2215,22 +2216,22 @@
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="E59" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="1">
         <v>1</v>
@@ -2238,45 +2239,45 @@
     </row>
     <row r="60" spans="1:7" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E60" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60" s="1">
         <v>2</v>
       </c>
       <c r="G60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
       </c>
       <c r="F61" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" s="1">
         <v>3</v>
@@ -2284,77 +2285,54 @@
     </row>
     <row r="62" spans="1:7" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G62" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="20" customHeight="1">
-      <c r="A64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E64" s="1">
-        <v>2</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="1">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G64" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G64">
-      <sortCondition ref="A1:A64"/>
+  <autoFilter ref="A1:G63" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G63">
+      <sortCondition ref="A1:A63"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D251E63F-9E5F-014F-BEA4-CA0FFE7EAF30}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{286B2F57-A40E-424E-B05B-7FFA9F13614B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="143">
   <si>
     <t>Author</t>
   </si>
@@ -116,14 +116,6 @@
   </si>
   <si>
     <t>Sonic Iconicity and the Flesh of the Earth: Perceptual Dynamics in The Skin of the Earth: Fragments (2024) by Paulo C. Chagas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phonosemantic Analysis of Russian Dialect Words Denoting Noisy and Greedy Eating and Drinking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Noland, Natalia and Besedina, Elena</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -691,6 +683,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1010,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1032,33 +1028,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1072,16 +1068,16 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -1101,10 +1097,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1118,16 +1114,16 @@
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1141,13 +1137,13 @@
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1155,13 +1151,13 @@
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1175,10 +1171,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -1192,16 +1188,16 @@
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -1215,16 +1211,16 @@
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1238,16 +1234,16 @@
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -1261,16 +1257,16 @@
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -1284,13 +1280,13 @@
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1298,16 +1294,16 @@
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1321,13 +1317,13 @@
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1335,16 +1331,16 @@
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -1364,10 +1360,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1381,13 +1377,13 @@
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -1395,16 +1391,16 @@
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -1418,16 +1414,16 @@
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -1447,10 +1443,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1464,13 +1460,13 @@
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
@@ -1478,16 +1474,16 @@
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -1507,7 +1503,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1515,16 +1511,16 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
@@ -1538,13 +1534,13 @@
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
@@ -1552,16 +1548,16 @@
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E27" s="1">
         <v>3</v>
@@ -1575,13 +1571,13 @@
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1589,16 +1585,16 @@
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1612,16 +1608,16 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
@@ -1641,7 +1637,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1649,16 +1645,16 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
@@ -1672,16 +1668,16 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1695,13 +1691,13 @@
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
@@ -1709,16 +1705,16 @@
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -1732,22 +1728,22 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -1755,45 +1751,45 @@
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>137</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -1801,285 +1797,276 @@
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
       </c>
       <c r="G40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>4</v>
-      </c>
-      <c r="G42" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
       </c>
       <c r="G44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="E45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E46" s="1">
-        <v>2</v>
-      </c>
-      <c r="F46" s="1">
-        <v>4</v>
-      </c>
-      <c r="G46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>132</v>
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>131</v>
+        <v>88</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="1">
         <v>3</v>
       </c>
       <c r="G48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E49" s="1">
-        <v>2</v>
-      </c>
-      <c r="F49" s="1">
-        <v>3</v>
-      </c>
-      <c r="G49" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+      <c r="G50" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <v>4</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>59</v>
+        <v>111</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -2087,30 +2074,39 @@
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>110</v>
+        <v>48</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
+      </c>
+      <c r="F53" s="1">
+        <v>4</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
@@ -2124,65 +2120,65 @@
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>48</v>
+        <v>92</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E55" s="1">
         <v>2</v>
       </c>
       <c r="F55" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>95</v>
+        <v>20</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
@@ -2193,22 +2189,22 @@
     </row>
     <row r="58" spans="1:7" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="E58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
@@ -2216,45 +2212,45 @@
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E59" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59" s="1">
         <v>2</v>
       </c>
       <c r="G59" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
       </c>
       <c r="F60" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1">
         <v>3</v>
@@ -2262,77 +2258,54 @@
     </row>
     <row r="61" spans="1:7" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
       </c>
       <c r="F61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="20" customHeight="1">
-      <c r="A63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E63" s="1">
-        <v>2</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" s="1">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G63" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G63">
-      <sortCondition ref="A1:A63"/>
+  <autoFilter ref="A1:G62" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G62">
+      <sortCondition ref="A1:A62"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/IcoLL2026.xlsx
+++ b/docs/IcoLL2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{286B2F57-A40E-424E-B05B-7FFA9F13614B}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{2FCADED3-4F4D-4F43-92FA-D17DEB88419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BCB6E10-CD14-5245-B727-50F7B4B7ADE1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="141">
   <si>
     <t>Author</t>
   </si>
@@ -92,14 +92,6 @@
   </si>
   <si>
     <t>Dvořáková, Adéla</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cherucodu, Rakesh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Variations and Dynamics in Iconicity: A Study of Symbolic Liberation in Sree Narayana Guru’s Daiva Dasakam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1006,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -1028,33 +1020,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1068,16 +1060,16 @@
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -1091,59 +1083,50 @@
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1151,253 +1134,262 @@
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
       </c>
       <c r="G8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>136</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>4</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>122</v>
@@ -1409,198 +1401,198 @@
         <v>2</v>
       </c>
       <c r="G19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>129</v>
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>121</v>
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>135</v>
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>130</v>
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2</v>
-      </c>
-      <c r="G25" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="E26" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E27" s="1">
-        <v>3</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>73</v>
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
         <v>3</v>
@@ -1608,59 +1600,59 @@
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>123</v>
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E30" s="1">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>92</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="1">
         <v>2</v>
@@ -1668,59 +1660,59 @@
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>3</v>
-      </c>
-      <c r="G33" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>113</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1">
         <v>2</v>
@@ -1728,45 +1720,45 @@
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>77</v>
+        <v>135</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -1774,285 +1766,276 @@
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="1">
         <v>3</v>
       </c>
       <c r="G39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>4</v>
-      </c>
-      <c r="G41" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
       </c>
       <c r="G43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="E44" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E45" s="1">
-        <v>2</v>
-      </c>
-      <c r="F45" s="1">
-        <v>4</v>
-      </c>
-      <c r="G45" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>129</v>
+        <v>86</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="1">
         <v>3</v>
       </c>
       <c r="G47" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E48" s="1">
-        <v>2</v>
-      </c>
-      <c r="F48" s="1">
-        <v>3</v>
-      </c>
-      <c r="G48" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>4</v>
+      </c>
+      <c r="G49" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>4</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>109</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="E51" s="1">
         <v>2</v>
@@ -2060,30 +2043,39 @@
     </row>
     <row r="52" spans="1:7" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>108</v>
+        <v>46</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>4</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -2097,65 +2089,65 @@
     </row>
     <row r="54" spans="1:7" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>46</v>
+        <v>90</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
       </c>
       <c r="F54" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>18</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="1">
         <v>1</v>
@@ -2166,22 +2158,22 @@
     </row>
     <row r="57" spans="1:7" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
@@ -2189,45 +2181,45 @@
     </row>
     <row r="58" spans="1:7" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
         <v>2</v>
       </c>
       <c r="G58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E59" s="1">
         <v>1</v>
       </c>
       <c r="F59" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" s="1">
         <v>3</v>
@@ -2235,77 +2227,54 @@
     </row>
     <row r="60" spans="1:7" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
       </c>
       <c r="F60" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="20" customHeight="1">
-      <c r="A62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E62" s="1">
-        <v>2</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1</v>
-      </c>
-      <c r="G62" s="1">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G62" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G62">
-      <sortCondition ref="A1:A62"/>
+  <autoFilter ref="A1:G61" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G61">
+      <sortCondition ref="A1:A61"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
